--- a/source/food_waste.xlsx
+++ b/source/food_waste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krant\Desktop\ironhack_262\final_project\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F4F8A2-A03D-4E9B-9976-D2CF44508066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5E7FA6-5A3F-489F-8A94-799323B40296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="86">
   <si>
     <t>Food waste and food waste prevention by NACE Rev. 2 activity - tonnes of fresh mass [env_wasfw__custom_10910045]</t>
   </si>
@@ -281,6 +281,9 @@
   </si>
   <si>
     <t>year</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -1385,11 +1388,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="12" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1477,7 +1480,7 @@
         <v>70</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="C11" s="24" t="s">
         <v>71</v>
@@ -2765,7 +2768,7 @@
       <pane xSplit="1" ySplit="12" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2853,7 +2856,7 @@
         <v>70</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="C11" s="24" t="s">
         <v>71</v>
@@ -4141,7 +4144,7 @@
       <pane xSplit="1" ySplit="12" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4229,7 +4232,7 @@
         <v>70</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="C11" s="24" t="s">
         <v>71</v>
@@ -7019,11 +7022,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="12" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12:M40"/>
+      <selection pane="bottomRight" activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7111,7 +7114,7 @@
         <v>70</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="C11" s="24" t="s">
         <v>71</v>
